--- a/civitas web/statics/icon/skill/技能对应表.xlsx
+++ b/civitas web/statics/icon/skill/技能对应表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈廷臻\Desktop\CIVITAS2\本地\civitas\img\skill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈廷臻\Desktop\CIVITAS2\本地\civitas\icon\skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBDD7B3-4FC1-44D2-A817-AC9A32F31112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D7533-721A-4BFA-8BA6-34E530DC2D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="23064" windowHeight="12472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2701" yWindow="5308" windowWidth="17138" windowHeight="8890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>大类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,120 +71,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>粮食种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采伐小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属锻造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木石加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟车小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆上运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕捞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畜牧小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家禽养殖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家畜养殖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蔬果种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经济作物种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开垦</t>
-  </si>
-  <si>
-    <t>粮食种植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采伐小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘探</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设小类需要修改，还未定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冶炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属锻造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纺织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木石加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄辩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舟车小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水上运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆上运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕捞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畜牧小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家禽养殖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家畜养殖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +523,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.7" x14ac:dyDescent="0.25"/>
@@ -541,19 +548,19 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
@@ -567,22 +574,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
@@ -596,19 +606,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1">
         <v>2</v>
@@ -622,19 +638,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1">
         <v>3</v>
@@ -648,13 +664,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1">
         <v>4</v>
@@ -676,19 +692,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>10</v>
@@ -702,19 +718,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -722,19 +738,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -742,19 +758,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
@@ -762,13 +778,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
@@ -776,7 +792,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
